--- a/Testdata/Templates/UtilityOutcome/QOL/OldImportLogic/QOL_OldImportExpectedResult_mainpulated_data.xlsx
+++ b/Testdata/Templates/UtilityOutcome/QOL/OldImportLogic/QOL_OldImportExpectedResult_mainpulated_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learning\CodePractice\selenium_python\RoughWorkspace\UtilityOutcome\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\Templates\UtilityOutcome\QOL\OldImportLogic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E4A8DB-444D-460E-84D3-428D464ED64E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE08CDC-3F1B-4691-8021-6283AB02291A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -528,18 +528,6 @@
     <t>Patients had to have been receiving Abiraterone + Prednisone or Enzalutamide treatment for a minimum of two months</t>
   </si>
   <si>
-    <t>2+ line</t>
-  </si>
-  <si>
-    <t>2 line</t>
-  </si>
-  <si>
-    <t>1 line</t>
-  </si>
-  <si>
-    <t>1+ line</t>
-  </si>
-  <si>
     <t>Inclusion criteria: Metastatic castration-resistant prostate cancer whose disease progressed during or after docetaxel-based therapy. Exclusion criteria: Patients were eligible for the EAP if they were aged at least 18 years, had confirmed mCRPC previously treated with a docetaxel-containing regimen and experienced disease progression during or after docetaxel treatment. Additional inclusion criteria were ongoing surgical or medical castration; Eastern Cooperative Oncology Group (ECOG) performance status (PS) 0, 1 or 2; life expectancy ≥3 months; adequate bone marrow, renal and liver function; and written informed consent.</t>
   </si>
   <si>
@@ -548,6 +536,18 @@
   <si>
     <t>Inclusion criteria: Patients were eligible for inclusion in the study if they had a histologically or cytologically confirmed diagnosis of adenocarcinoma of the prostate; prostate cancer progression documented by prostate-specific antigen according to Prostate Cancer Working Group 2 (PCWG2) criteria or radiographic progression, and disease progression despite surgical or medical castration [a testosterone level of &lt;50 ng/dL (&lt;1.735 nM) was required if testosterone levels were routinely measured]; Exclusion criteria included participation in any investigational drug study or any expanded access program during the observation period. 
 Exclusion criteria: Participation in any investigational drug study or any expanded access program during the observation period.</t>
+  </si>
+  <si>
+    <t>1 Line</t>
+  </si>
+  <si>
+    <t>2+ Line</t>
+  </si>
+  <si>
+    <t>2 Line</t>
+  </si>
+  <si>
+    <t>1+ Line</t>
   </si>
 </sst>
 </file>
@@ -557,11 +557,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -945,98 +952,104 @@
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="2">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="2">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="2">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="2">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="2">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="1"/>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="2">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="2">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="2">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="2">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="2">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1"/>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="2">
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="2">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="2">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="2">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="2">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="2">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="1"/>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="2">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="2">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="2">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="2">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="2">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="2">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="2">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1044,34 +1057,31 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="2" xfId="23">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="2" xfId="23">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1351,7 +1361,7 @@
       <pane xSplit="9" ySplit="12" topLeftCell="J13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
+      <selection pane="bottomRight" activeCell="K2" sqref="K2:K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1448,8 +1458,8 @@
       <c r="J2" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="K2" s="11" t="s">
-        <v>146</v>
+      <c r="K2" s="15" t="s">
+        <v>147</v>
       </c>
       <c r="L2" s="11" t="s">
         <v>121</v>
@@ -1481,7 +1491,7 @@
         <v>80</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>67</v>
@@ -1489,8 +1499,8 @@
       <c r="J3" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="K3" s="11" t="s">
-        <v>144</v>
+      <c r="K3" s="15" t="s">
+        <v>148</v>
       </c>
       <c r="L3" s="11" t="s">
         <v>126</v>
@@ -1522,7 +1532,7 @@
         <v>80</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="I4" s="11" t="s">
         <v>67</v>
@@ -1530,8 +1540,8 @@
       <c r="J4" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="K4" s="11" t="s">
-        <v>144</v>
+      <c r="K4" s="15" t="s">
+        <v>148</v>
       </c>
       <c r="L4" s="11" t="s">
         <v>131</v>
@@ -1571,7 +1581,7 @@
       <c r="J5" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="15" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="11" t="s">
@@ -1612,8 +1622,8 @@
       <c r="J6" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="K6" s="11" t="s">
-        <v>144</v>
+      <c r="K6" s="15" t="s">
+        <v>148</v>
       </c>
       <c r="L6" s="11" t="s">
         <v>139</v>
@@ -1653,8 +1663,8 @@
       <c r="J7" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="K7" s="11" t="s">
-        <v>145</v>
+      <c r="K7" s="15" t="s">
+        <v>149</v>
       </c>
       <c r="L7" s="11" t="s">
         <v>65</v>
@@ -1694,7 +1704,7 @@
       <c r="J8" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="15" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="11" t="s">
@@ -1735,7 +1745,7 @@
       <c r="J9" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="15" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="11" t="s">
@@ -1776,7 +1786,7 @@
       <c r="J10" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="15" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="11" t="s">
@@ -1817,7 +1827,7 @@
       <c r="J11" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="15" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="11" t="s">
@@ -1856,9 +1866,9 @@
         <v>67</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="K12" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="K12" s="15" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="11" t="s">
@@ -1899,8 +1909,8 @@
       <c r="J13" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="K13" s="11" t="s">
-        <v>145</v>
+      <c r="K13" s="15" t="s">
+        <v>149</v>
       </c>
       <c r="L13" s="11" t="s">
         <v>98</v>
@@ -1940,8 +1950,8 @@
       <c r="J14" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="K14" s="11" t="s">
-        <v>145</v>
+      <c r="K14" s="15" t="s">
+        <v>149</v>
       </c>
       <c r="L14" s="11" t="s">
         <v>98</v>
@@ -1981,8 +1991,8 @@
       <c r="J15" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="K15" s="11" t="s">
-        <v>145</v>
+      <c r="K15" s="15" t="s">
+        <v>149</v>
       </c>
       <c r="L15" s="11" t="s">
         <v>106</v>
@@ -2022,7 +2032,7 @@
       <c r="J16" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="15" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="11" t="s">
@@ -2061,10 +2071,10 @@
         <v>67</v>
       </c>
       <c r="J17" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="K17" s="15" t="s">
         <v>150</v>
-      </c>
-      <c r="K17" s="11" t="s">
-        <v>147</v>
       </c>
       <c r="L17" s="11" t="s">
         <v>116</v>
@@ -2414,12 +2424,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="4654e9f1-a236-4d55-b6c2-932c37e5d109">
+      <UserInfo>
+        <DisplayName>Brent Rine</DisplayName>
+        <AccountId>23</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2634,23 +2649,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="4654e9f1-a236-4d55-b6c2-932c37e5d109">
-      <UserInfo>
-        <DisplayName>Brent Rine</DisplayName>
-        <AccountId>23</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A2AA17B-CA28-47AB-9F1B-CF2D00CC15D4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AA33094-6942-48DE-9F4F-C923660B2492}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4654e9f1-a236-4d55-b6c2-932c37e5d109"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2675,11 +2687,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AA33094-6942-48DE-9F4F-C923660B2492}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A2AA17B-CA28-47AB-9F1B-CF2D00CC15D4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4654e9f1-a236-4d55-b6c2-932c37e5d109"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Testdata/Templates/UtilityOutcome/QOL/OldImportLogic/QOL_OldImportExpectedResult_mainpulated_data.xlsx
+++ b/Testdata/Templates/UtilityOutcome/QOL/OldImportLogic/QOL_OldImportExpectedResult_mainpulated_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\Templates\UtilityOutcome\QOL\OldImportLogic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE08CDC-3F1B-4691-8021-6283AB02291A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBE4C48-8CA8-4FE2-8B07-FB36F37057EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -256,9 +256,6 @@
     <t>Utility Elicitation Method</t>
   </si>
   <si>
-    <t>Article Identifier(s)</t>
-  </si>
-  <si>
     <t>Study Design</t>
   </si>
   <si>
@@ -548,6 +545,9 @@
   </si>
   <si>
     <t>1+ Line</t>
+  </si>
+  <si>
+    <t>Study Identifier</t>
   </si>
 </sst>
 </file>
@@ -1361,7 +1361,7 @@
       <pane xSplit="9" ySplit="12" topLeftCell="J13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="K2" sqref="K2:K17"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1382,7 +1382,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="62.4">
       <c r="A1" s="10" t="s">
-        <v>62</v>
+        <v>150</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>5</v>
@@ -1438,31 +1438,31 @@
         <v>10</v>
       </c>
       <c r="D2" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="F2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="H2" s="11" t="s">
+      <c r="I2" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="I2" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>125</v>
-      </c>
       <c r="K2" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M2" s="11"/>
       <c r="N2" s="11"/>
@@ -1479,31 +1479,31 @@
         <v>10</v>
       </c>
       <c r="D3" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="F3" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="G3" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>130</v>
-      </c>
       <c r="K3" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
@@ -1520,31 +1520,31 @@
         <v>10</v>
       </c>
       <c r="D4" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>133</v>
-      </c>
       <c r="F4" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="J4" s="12" t="s">
+      <c r="K4" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="L4" s="11" t="s">
         <v>130</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>131</v>
       </c>
       <c r="M4" s="11"/>
       <c r="N4" s="11"/>
@@ -1561,31 +1561,31 @@
         <v>10</v>
       </c>
       <c r="D5" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="F5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="H5" s="11" t="s">
+      <c r="I5" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="I5" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>138</v>
-      </c>
       <c r="K5" s="15" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
@@ -1602,31 +1602,31 @@
         <v>10</v>
       </c>
       <c r="D6" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="F6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="H6" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="H6" s="11" t="s">
+      <c r="I6" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="I6" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>143</v>
-      </c>
       <c r="K6" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
@@ -1643,31 +1643,31 @@
         <v>10</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
@@ -1684,31 +1684,31 @@
         <v>10</v>
       </c>
       <c r="D8" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="F8" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="G8" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="G8" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="H8" s="11" t="s">
+      <c r="I8" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="I8" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>78</v>
-      </c>
       <c r="K8" s="15" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
@@ -1725,31 +1725,31 @@
         <v>10</v>
       </c>
       <c r="D9" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="F9" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H9" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="F9" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="H9" s="11" t="s">
+      <c r="I9" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="I9" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>84</v>
-      </c>
       <c r="K9" s="15" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
@@ -1766,31 +1766,31 @@
         <v>10</v>
       </c>
       <c r="D10" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="F10" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H10" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="F10" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>88</v>
-      </c>
       <c r="I10" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J10" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="11" t="s">
         <v>84</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>85</v>
       </c>
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
@@ -1807,31 +1807,31 @@
         <v>10</v>
       </c>
       <c r="D11" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="F11" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>92</v>
-      </c>
       <c r="I11" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K11" s="15" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
@@ -1848,31 +1848,31 @@
         <v>10</v>
       </c>
       <c r="D12" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="F12" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="G12" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="G12" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>97</v>
-      </c>
       <c r="I12" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K12" s="15" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
@@ -1889,31 +1889,31 @@
         <v>10</v>
       </c>
       <c r="D13" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="F13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="H13" s="11" t="s">
+      <c r="I13" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J13" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="I13" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>102</v>
-      </c>
       <c r="K13" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L13" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
@@ -1930,31 +1930,31 @@
         <v>10</v>
       </c>
       <c r="D14" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="F14" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="F14" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>105</v>
-      </c>
       <c r="I14" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
@@ -1971,31 +1971,31 @@
         <v>10</v>
       </c>
       <c r="D15" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E15" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="F15" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="F15" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="H15" s="11" t="s">
+      <c r="I15" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J15" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="I15" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="J15" s="12" t="s">
-        <v>110</v>
-      </c>
       <c r="K15" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M15" s="11"/>
       <c r="N15" s="11"/>
@@ -2012,31 +2012,31 @@
         <v>10</v>
       </c>
       <c r="D16" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="F16" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="F16" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="H16" s="11" t="s">
+      <c r="I16" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J16" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="I16" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>115</v>
-      </c>
       <c r="K16" s="15" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
@@ -2053,31 +2053,31 @@
         <v>10</v>
       </c>
       <c r="D17" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E17" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="F17" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="H17" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="F17" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>120</v>
-      </c>
       <c r="I17" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M17" s="11"/>
       <c r="N17" s="11"/>
@@ -2424,17 +2424,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="4654e9f1-a236-4d55-b6c2-932c37e5d109">
-      <UserInfo>
-        <DisplayName>Brent Rine</DisplayName>
-        <AccountId>23</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2649,20 +2644,23 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="4654e9f1-a236-4d55-b6c2-932c37e5d109">
+      <UserInfo>
+        <DisplayName>Brent Rine</DisplayName>
+        <AccountId>23</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AA33094-6942-48DE-9F4F-C923660B2492}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A2AA17B-CA28-47AB-9F1B-CF2D00CC15D4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4654e9f1-a236-4d55-b6c2-932c37e5d109"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2687,9 +2685,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A2AA17B-CA28-47AB-9F1B-CF2D00CC15D4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AA33094-6942-48DE-9F4F-C923660B2492}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4654e9f1-a236-4d55-b6c2-932c37e5d109"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>